--- a/app/data/absenteeism_data_15.xlsx
+++ b/app/data/absenteeism_data_15.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3904</v>
+        <v>50835</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Lucas Rocha</t>
+          <t>Sra. Ana Lívia Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,89 +490,89 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>11212.51</v>
+        <v>8658.870000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97678</v>
+        <v>52022</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isabelly da Mota</t>
+          <t>Marina Nogueira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>7360.38</v>
+        <v>10599.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95078</v>
+        <v>34568</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Benjamin da Rocha</t>
+          <t>Srta. Lavínia Mendes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>7842.65</v>
+        <v>2859.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61699</v>
+        <v>31453</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Otávio Oliveira</t>
+          <t>Lorenzo Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>10933.75</v>
+        <v>5193.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98046</v>
+        <v>4410</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Caroline Correia</t>
+          <t>Juliana Barbosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>6355.95</v>
+        <v>12273.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9225</v>
+        <v>36679</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Vitor Hugo da Rocha</t>
+          <t>Srta. Caroline Duarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,80 +639,80 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>5210.96</v>
+        <v>9222.129999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70014</v>
+        <v>84454</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Emanuel Correia</t>
+          <t>Dra. Letícia Moura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>7315.41</v>
+        <v>11769.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5015</v>
+        <v>1507</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vitor Hugo Duarte</t>
+          <t>Fernanda Fernandes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>6994.34</v>
+        <v>8199.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35515</v>
+        <v>58115</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. João Felipe Vieira</t>
+          <t>Srta. Isadora Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>3773.58</v>
+        <v>9262.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39533</v>
+        <v>98595</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pietro Monteiro</t>
+          <t>Sr. Enrico Souza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>3481.13</v>
+        <v>3451.41</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_15.xlsx
+++ b/app/data/absenteeism_data_15.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74797</v>
+        <v>65865</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarah Freitas</t>
+          <t>Thomas Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>3709.25</v>
+        <v>5477.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88638</v>
+        <v>38074</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sofia Fogaça</t>
+          <t>Dr. João Gabriel Caldeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,51 +523,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>6977.86</v>
+        <v>10493.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>53946</v>
+        <v>28772</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yasmin Dias</t>
+          <t>Danilo Rezende</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>6243.83</v>
+        <v>7140.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79771</v>
+        <v>91516</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Luiza Fogaça</t>
+          <t>Sr. André Souza</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>4565.98</v>
+        <v>2563.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>44673</v>
+        <v>38450</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isaac Peixoto</t>
+          <t>Theo Monteiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>8400.24</v>
+        <v>11002.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39891</v>
+        <v>14670</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Vitor Almeida</t>
+          <t>Letícia Campos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>4979.4</v>
+        <v>11247.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17188</v>
+        <v>75306</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vinicius Costela</t>
+          <t>Fernanda Pires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>5421.55</v>
+        <v>8149.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26296</v>
+        <v>95118</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Alícia da Mota</t>
+          <t>Ana Júlia Cardoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>10245.31</v>
+        <v>6969.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>36382</v>
+        <v>36940</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Otávio Viana</t>
+          <t>Arthur da Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>4392.14</v>
+        <v>5585.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31527</v>
+        <v>5976</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joana Pereira</t>
+          <t>Srta. Luiza Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>12169.38</v>
+        <v>5295.95</v>
       </c>
     </row>
   </sheetData>
